--- a/src/main/resources/dataTest/LOGIN_TEST.xlsx
+++ b/src/main/resources/dataTest/LOGIN_TEST.xlsx
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="logindata" sheetId="1" r:id="rId1"/>
     <sheet name="cartdata" sheetId="2" r:id="rId2"/>
-    <sheet name="paymentdata" sheetId="4" r:id="rId3"/>
-    <sheet name="chú thích" sheetId="3" r:id="rId4"/>
+    <sheet name="userdata" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,257 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>TC_001</t>
-  </si>
-  <si>
-    <t>Card Number</t>
-  </si>
-  <si>
-    <t>Card Holder</t>
-  </si>
-  <si>
-    <t>Expiration Date</t>
-  </si>
-  <si>
-    <t>OTP</t>
-  </si>
-  <si>
-    <t>1234 5678 9012 3456</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Payment Success</t>
-  </si>
-  <si>
-    <r>
-      <t>Test Case ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Mã của test case, có thể giúp bạn xác định từng trường hợp kiểm thử.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Username</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Tên đăng nhập cần sử dụng trong kịch bản kiểm thử.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Mật khẩu tương ứng với tên đăng nhập.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Expected Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Kết quả mong đợi (ví dụ: đăng nhập thành công, đăng nhập thất bại).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Actual Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Kết quả thực tế sau khi thực hiện kiểm thử.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Trạng thái của test case (Pass/Fail).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Error Message</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Nếu kiểm thử thất bại, bạn có thể ghi chú thông báo lỗi</t>
-    </r>
-  </si>
-  <si>
-    <t>Bảng DataLogin</t>
-  </si>
-  <si>
-    <t>BảngCartData</t>
-  </si>
-  <si>
-    <r>
-      <t>Card Number</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Số thẻ tín dụng.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Card Holder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Tên chủ thẻ.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Expiration Date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Ngày hết hạn của thẻ.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>OTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Mã OTP (One-Time Password) để xác thực thanh toán.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Expected Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Kết quả mong đợi của thanh toán (thành công, thất bại).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Actual Result</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Kết quả thực tế của thao tác thanh toán.</t>
-    </r>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
-    <t>Pas</t>
-  </si>
-  <si>
-    <t>Bảng paymentdata</t>
-  </si>
-  <si>
     <t>User ID</t>
   </si>
   <si>
@@ -350,14 +106,65 @@
     <t>password</t>
   </si>
   <si>
-    <t>TECH SMAR</t>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>yttnpc08086@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>fullname</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Trần Thị Như</t>
+  </si>
+  <si>
+    <t>nhuy123</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>0347121916</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>C:\Users\ADMIN\Pictures\Saved Pictures\nen.jpg</t>
+  </si>
+  <si>
+    <t>nhuy11</t>
+  </si>
+  <si>
+    <t>ttnpc08086@fpt.edu.vn</t>
+  </si>
+  <si>
+    <t>Trần Thị Mi</t>
+  </si>
+  <si>
+    <t>mi123@gmal.com</t>
+  </si>
+  <si>
+    <t>Bắt buộc nhập tên người dùng</t>
+  </si>
+  <si>
+    <t>Bắt buộc nhập họ và tên</t>
+  </si>
+  <si>
+    <t>React app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +176,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -391,8 +206,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -402,18 +218,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,7 +510,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,15 +526,15 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1"/>
@@ -728,18 +543,18 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -775,53 +590,53 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -835,7 +650,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -847,10 +662,10 @@
         <v>1000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2">
         <v>50</v>
@@ -862,9 +677,9 @@
         <v>1070</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="6">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4">
         <v>45633</v>
       </c>
     </row>
@@ -879,7 +694,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -891,10 +706,10 @@
         <v>1000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2">
         <v>60</v>
@@ -906,9 +721,9 @@
         <v>1075</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="6">
+        <v>21</v>
+      </c>
+      <c r="N3" s="4">
         <v>45633</v>
       </c>
     </row>
@@ -919,213 +734,112 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5546875" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>45651</v>
-      </c>
-      <c r="E2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>987654321</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>